--- a/biology/Médecine/Faculté_de_médecine_et_de_pharmacie_de_Rabat/Faculté_de_médecine_et_de_pharmacie_de_Rabat.xlsx
+++ b/biology/Médecine/Faculté_de_médecine_et_de_pharmacie_de_Rabat/Faculté_de_médecine_et_de_pharmacie_de_Rabat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_et_de_pharmacie_de_Rabat</t>
+          <t>Faculté_de_médecine_et_de_pharmacie_de_Rabat</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Faculté de Médecine et de Pharmacie de Rabat (FMP-Rabat) est un établissement d'enseignement supérieur public marocain de médecine et de pharmacie créé en 1962 ; il est affilié à l'Université Mohammed V de Rabat.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_et_de_pharmacie_de_Rabat</t>
+          <t>Faculté_de_médecine_et_de_pharmacie_de_Rabat</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La FMP-Rabat a été instituée par le dahir 1.58.390 et créée par le dahir 1.62.227. La faculté a été inaugurée officiellement par le roi Hassan II, le 16 octobre 1962, et ouverte en novembre de l'année universitaire 1962-1963[1]. Le 16 octobre 1986, la section « Pharmacie » voit le jour.  Le résidanat est mis en place en mars 1996.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La FMP-Rabat a été instituée par le dahir 1.58.390 et créée par le dahir 1.62.227. La faculté a été inaugurée officiellement par le roi Hassan II, le 16 octobre 1962, et ouverte en novembre de l'année universitaire 1962-1963. Le 16 octobre 1986, la section « Pharmacie » voit le jour.  Le résidanat est mis en place en mars 1996.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_et_de_pharmacie_de_Rabat</t>
+          <t>Faculté_de_médecine_et_de_pharmacie_de_Rabat</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_et_de_pharmacie_de_Rabat</t>
+          <t>Faculté_de_médecine_et_de_pharmacie_de_Rabat</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,7 +584,9 @@
           <t>Liste des doyens de la faculté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">|-
 | Pr || Brahim Lekehal || 2022 - 
@@ -583,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_et_de_pharmacie_de_Rabat</t>
+          <t>Faculté_de_médecine_et_de_pharmacie_de_Rabat</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,9 +619,11 @@
           <t>Professeurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anas Doukkali: professeur et homme politique marocain. Il est ministre de santé du 22 janvier 2018 au 9 octobre 2019 dans le gouvernement de Saâdeddine El Othmani[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anas Doukkali: professeur et homme politique marocain. Il est ministre de santé du 22 janvier 2018 au 9 octobre 2019 dans le gouvernement de Saâdeddine El Othmani.
 </t>
         </is>
       </c>
